--- a/medicine/Soins infirmiers et profession infirmière/Théorie_du_déficit_en_auto-soins/Théorie_du_déficit_en_auto-soins.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Théorie_du_déficit_en_auto-soins/Théorie_du_déficit_en_auto-soins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_du_d%C3%A9ficit_en_auto-soins</t>
+          <t>Théorie_du_déficit_en_auto-soins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La théorie du déficit en auto-soins est une des grandes théories des soins infirmiers qui a été développée entre 1959 et 2001 par Dorothea Orem. La théorie est également appelée modèle de soins infirmiers d'Orem . Il est particulièrement utilisé dans les établissements de réadaptation et de soins de santé primaires, où le patient est encouragé à être aussi indépendant que possible.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_du_d%C3%A9ficit_en_auto-soins</t>
+          <t>Théorie_du_déficit_en_auto-soins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Pensée centrale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La théorie des soins infirmiers est basée sur la philosophie selon laquelle tous les « patients souhaitent prendre soin d'eux-mêmes ». Ils peuvent récupérer plus rapidement et de manière holistique s'ils sont autorisés à prendre soin d'eux-mêmes au mieux de leurs capacités. La théorie des soins personnels infirmiers déficitaires d'Orem mettait l'accent sur l'établissement des perspectives infirmières concernant l'humain et la pratique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La théorie des soins infirmiers est basée sur la philosophie selon laquelle tous les « patients souhaitent prendre soin d'eux-mêmes ». Ils peuvent récupérer plus rapidement et de manière holistique s'ils sont autorisés à prendre soin d'eux-mêmes au mieux de leurs capacités. La théorie des soins personnels infirmiers déficitaires d'Orem mettait l'accent sur l'établissement des perspectives infirmières concernant l'humain et la pratique.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_du_d%C3%A9ficit_en_auto-soins</t>
+          <t>Théorie_du_déficit_en_auto-soins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Conditions de soins personnels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les prérequis de soins personnels sont des groupes de besoins ou d'exigences identifiés par Orem. Ils sont classés soit comme :
 des conditions de soins personnels universels : ces besoins que tout le monde a ;
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_du_d%C3%A9ficit_en_auto-soins</t>
+          <t>Théorie_du_déficit_en_auto-soins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Déficits de soins personnels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsqu'un individu est incapable de répondre à ses propres exigences en matière de soins personnels, un « déficit de soins personnels» se produit. C'est le travail de l'infirmière de déterminer ces déficits et de définir une modalité de prise en charge.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_du_d%C3%A9ficit_en_auto-soins</t>
+          <t>Théorie_du_déficit_en_auto-soins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Modalités d'accompagnement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les infirmières sont encouragées à évaluer les dépendances de leurs patients ou chacun des déficits de soins personnels sur l'échelle suivante :
 Compensation totale
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Th%C3%A9orie_du_d%C3%A9ficit_en_auto-soins</t>
+          <t>Théorie_du_déficit_en_auto-soins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,9 +661,11 @@
           <t>Conditions de soins personnels universels</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les conditions universelles de soins personnels nécessaires à la santé sont[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conditions universelles de soins personnels nécessaires à la santé sont :
 air ;
 eau ;
 nourriture ;
